--- a/src/test/java/excel/complexPojoTest.xlsx
+++ b/src/test/java/excel/complexPojoTest.xlsx
@@ -188,7 +188,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -224,7 +224,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -260,7 +260,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -296,7 +296,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -332,7 +332,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -368,7 +368,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -404,7 +404,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -440,7 +440,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -512,7 +512,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2018-11-06</t>
+          <t>2019-01-12</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
